--- a/Multiple-Assignments-(11-27-24).xlsx
+++ b/Multiple-Assignments-(11-27-24).xlsx
@@ -576,7 +576,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,13 +588,6 @@
       <sz val="11"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1044,28 +1037,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1074,118 +1070,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1594,7 +1587,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:C1"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1775,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="F4" s="2">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G4" s="2">
         <v>100</v>
@@ -1793,7 +1786,7 @@
         <v>100</v>
       </c>
       <c r="K4" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L4" s="2">
         <v>90</v>
@@ -1826,7 +1819,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F5" s="2">
         <v>55</v>
@@ -5715,11 +5708,11 @@
       </c>
       <c r="E83" s="5">
         <f t="shared" si="0"/>
-        <v>29.56</v>
+        <v>31.33</v>
       </c>
       <c r="F83" s="5">
         <f t="shared" si="0"/>
-        <v>41.96</v>
+        <v>42.15</v>
       </c>
       <c r="G83" s="5">
         <f t="shared" si="0"/>
@@ -5739,7 +5732,7 @@
       </c>
       <c r="K83" s="5">
         <f t="shared" si="0"/>
-        <v>43.97</v>
+        <v>44.61</v>
       </c>
       <c r="L83" s="5">
         <f t="shared" si="0"/>
@@ -5772,11 +5765,11 @@
       </c>
       <c r="E85" s="5">
         <f t="shared" si="1"/>
-        <v>33.04</v>
+        <v>38.04</v>
       </c>
       <c r="F85" s="5">
         <f t="shared" si="1"/>
-        <v>38.75</v>
+        <v>39.29</v>
       </c>
       <c r="G85" s="5">
         <f t="shared" si="1"/>
@@ -5796,7 +5789,7 @@
       </c>
       <c r="K85" s="5">
         <f t="shared" si="1"/>
-        <v>44.04</v>
+        <v>45.82</v>
       </c>
       <c r="L85" s="5">
         <f t="shared" si="1"/>

--- a/Multiple-Assignments-(11-27-24).xlsx
+++ b/Multiple-Assignments-(11-27-24).xlsx
@@ -1582,23 +1582,33 @@
   <sheetPr/>
   <dimension ref="A1:Q92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="M34" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="15.7090909090909" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="16.8" customWidth="1"/>
-    <col min="6" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="10" customWidth="1"/>
+    <col min="3" max="3" width="19.1454545454545" customWidth="1"/>
+    <col min="4" max="4" width="41.8181818181818" customWidth="1"/>
+    <col min="5" max="5" width="52.7272727272727" customWidth="1"/>
+    <col min="6" max="6" width="50.3636363636364" customWidth="1"/>
+    <col min="7" max="7" width="41.2727272727273" customWidth="1"/>
+    <col min="8" max="8" width="59.4545454545455" customWidth="1"/>
+    <col min="9" max="9" width="61.7272727272727" customWidth="1"/>
+    <col min="10" max="10" width="60.0909090909091" customWidth="1"/>
+    <col min="11" max="11" width="62.2727272727273" customWidth="1"/>
+    <col min="12" max="12" width="63.1818181818182" customWidth="1"/>
+    <col min="13" max="13" width="39" customWidth="1"/>
+    <col min="14" max="14" width="51.1818181818182" customWidth="1"/>
+    <col min="15" max="15" width="46" customWidth="1"/>
+    <col min="16" max="16" width="61.0909090909091" customWidth="1"/>
+    <col min="17" max="17" width="25.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14" spans="1:17">
@@ -1663,19 +1673,19 @@
         <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2">
         <v>100</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" s="2">
         <v>100</v>
@@ -1684,13 +1694,13 @@
         <v>100</v>
       </c>
       <c r="K2" s="2">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M2" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N2" s="2">
         <v>100</v>
@@ -1699,7 +1709,7 @@
         <v>100</v>
       </c>
       <c r="P2" s="2">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="2"/>
     </row>
@@ -1714,43 +1724,43 @@
         <v>18</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F3" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2">
         <v>100</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J3" s="2">
         <v>100</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M3" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O3" s="2">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="P3" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="2"/>
     </row>
@@ -1765,7 +1775,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2">
         <v>100</v>
@@ -1789,19 +1799,19 @@
         <v>100</v>
       </c>
       <c r="L4" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O4" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="2"/>
     </row>
@@ -1816,13 +1826,13 @@
         <v>26</v>
       </c>
       <c r="D5" s="2">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F5" s="2">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="G5" s="2">
         <v>100</v>
@@ -1837,22 +1847,22 @@
         <v>100</v>
       </c>
       <c r="K5" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O5" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P5" s="2">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="2"/>
     </row>
@@ -1870,25 +1880,25 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
@@ -1903,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2"/>
     </row>
@@ -1921,22 +1931,22 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -1945,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -1969,7 +1979,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1981,10 +1991,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -2002,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="O8" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2"/>
     </row>
@@ -2023,40 +2033,40 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2"/>
     </row>
@@ -2071,34 +2081,34 @@
         <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
@@ -2125,25 +2135,25 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -2155,10 +2165,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2"/>
     </row>
@@ -2179,19 +2189,19 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -2284,19 +2294,19 @@
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
@@ -2308,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2">
         <v>0</v>
@@ -2329,31 +2339,31 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
@@ -2386,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -2395,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -2443,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -2464,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2"/>
     </row>
@@ -2479,16 +2489,16 @@
         <v>18</v>
       </c>
       <c r="D18" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E18" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F18" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G18" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="2">
         <v>100</v>
@@ -2512,10 +2522,10 @@
         <v>100</v>
       </c>
       <c r="O18" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P18" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="2"/>
     </row>
@@ -2533,25 +2543,25 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J19" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K19" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -2566,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2"/>
     </row>
@@ -2581,25 +2591,25 @@
         <v>18</v>
       </c>
       <c r="D20" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
       </c>
       <c r="I20" s="2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J20" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -2608,16 +2618,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
       </c>
       <c r="O20" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2"/>
     </row>
@@ -2638,25 +2648,25 @@
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
       </c>
       <c r="I21" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K21" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
@@ -2668,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2"/>
     </row>
@@ -2701,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -2719,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="2"/>
     </row>
@@ -2734,28 +2744,28 @@
         <v>23</v>
       </c>
       <c r="D23" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
@@ -2767,10 +2777,10 @@
         <v>0</v>
       </c>
       <c r="O23" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P23" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="2"/>
     </row>
@@ -2785,28 +2795,28 @@
         <v>26</v>
       </c>
       <c r="D24" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G24" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
         <v>0</v>
@@ -2815,13 +2825,13 @@
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="2"/>
     </row>
@@ -2854,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K25" s="2">
         <v>0</v>
@@ -2890,40 +2900,40 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="2">
         <v>0</v>
       </c>
       <c r="O26" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="2"/>
     </row>
@@ -2941,22 +2951,22 @@
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -2974,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="2"/>
     </row>
@@ -2992,25 +3002,25 @@
         <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J28" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L28" s="2">
         <v>0</v>
@@ -3049,16 +3059,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H29" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J29" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2">
         <v>0</v>
@@ -3103,13 +3113,13 @@
         <v>0</v>
       </c>
       <c r="H30" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J30" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
@@ -3145,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="E31" s="2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
       </c>
       <c r="I31" s="2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J31" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
@@ -3214,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L32" s="2">
         <v>0</v>
@@ -3298,34 +3308,34 @@
         <v>0</v>
       </c>
       <c r="E34" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G34" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H34" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I34" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J34" s="2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K34" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L34" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M34" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N34" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O34" s="2">
         <v>0</v>
@@ -3352,22 +3362,22 @@
         <v>0</v>
       </c>
       <c r="F35" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G35" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="2">
         <v>0</v>
@@ -3376,13 +3386,13 @@
         <v>0</v>
       </c>
       <c r="N35" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="2"/>
     </row>
@@ -3403,25 +3413,25 @@
         <v>0</v>
       </c>
       <c r="F36" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G36" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
       </c>
       <c r="I36" s="2">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="J36" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K36" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L36" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M36" s="2">
         <v>0</v>
@@ -3430,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="O36" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="P36" s="2">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="2"/>
     </row>
@@ -3448,13 +3458,13 @@
         <v>18</v>
       </c>
       <c r="D37" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E37" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F37" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
@@ -3466,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K37" s="2">
         <v>0</v>
@@ -3556,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="2">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
@@ -3565,10 +3575,10 @@
         <v>0</v>
       </c>
       <c r="I39" s="2">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J39" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
@@ -3583,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P39" s="2">
         <v>0</v>
@@ -3655,40 +3665,40 @@
         <v>0</v>
       </c>
       <c r="E41" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F41" s="2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G41" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L41" s="2">
         <v>0</v>
       </c>
       <c r="M41" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P41" s="2">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="2"/>
     </row>
@@ -3703,16 +3713,16 @@
         <v>26</v>
       </c>
       <c r="D42" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E42" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F42" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G42" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H42" s="2">
         <v>100</v>
@@ -3721,25 +3731,25 @@
         <v>100</v>
       </c>
       <c r="J42" s="2">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K42" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L42" s="2">
         <v>100</v>
       </c>
       <c r="M42" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N42" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O42" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P42" s="2">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="Q42" s="2"/>
     </row>
@@ -3754,13 +3764,13 @@
         <v>26</v>
       </c>
       <c r="D43" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G43" s="2">
         <v>100</v>
@@ -3778,19 +3788,19 @@
         <v>100</v>
       </c>
       <c r="L43" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="2">
         <v>100</v>
       </c>
       <c r="P43" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="2"/>
     </row>
@@ -3814,16 +3824,16 @@
         <v>0</v>
       </c>
       <c r="G44" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H44" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="2">
         <v>0</v>
       </c>
       <c r="J44" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
@@ -3838,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="P44" s="2">
         <v>0</v>
@@ -3856,37 +3866,37 @@
         <v>18</v>
       </c>
       <c r="D45" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E45" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F45" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="2">
         <v>0</v>
       </c>
       <c r="N45" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O45" s="2">
         <v>0</v>
@@ -3910,25 +3920,25 @@
         <v>0</v>
       </c>
       <c r="E46" s="2">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="F46" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G46" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="L46" s="2">
         <v>0</v>
@@ -3970,13 +3980,13 @@
         <v>0</v>
       </c>
       <c r="H47" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I47" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J47" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2">
         <v>0</v>
@@ -4015,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G48" s="2">
         <v>0</v>
@@ -4042,10 +4052,10 @@
         <v>0</v>
       </c>
       <c r="O48" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P48" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="2"/>
     </row>
@@ -4063,25 +4073,25 @@
         <v>0</v>
       </c>
       <c r="E49" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F49" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G49" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H49" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I49" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J49" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K49" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L49" s="2">
         <v>0</v>
@@ -4090,13 +4100,13 @@
         <v>0</v>
       </c>
       <c r="N49" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O49" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P49" s="2">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="2"/>
     </row>
@@ -4117,25 +4127,25 @@
         <v>0</v>
       </c>
       <c r="F50" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G50" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H50" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I50" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J50" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K50" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L50" s="2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="M50" s="2">
         <v>0</v>
@@ -4162,25 +4172,25 @@
         <v>23</v>
       </c>
       <c r="D51" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
       </c>
       <c r="F51" s="2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G51" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H51" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I51" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J51" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K51" s="2">
         <v>0</v>
@@ -4219,25 +4229,25 @@
         <v>0</v>
       </c>
       <c r="F52" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G52" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I52" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J52" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K52" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L52" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M52" s="2">
         <v>0</v>
@@ -4246,10 +4256,10 @@
         <v>0</v>
       </c>
       <c r="O52" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="P52" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="2"/>
     </row>
@@ -4264,43 +4274,43 @@
         <v>18</v>
       </c>
       <c r="D53" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F53" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G53" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H53" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I53" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J53" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K53" s="2">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L53" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M53" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N53" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O53" s="2">
         <v>100</v>
       </c>
       <c r="P53" s="2">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="Q53" s="2"/>
     </row>
@@ -4324,31 +4334,31 @@
         <v>0</v>
       </c>
       <c r="G54" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H54" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I54" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K54" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L54" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M54" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N54" s="2">
         <v>0</v>
       </c>
       <c r="O54" s="2">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="P54" s="2">
         <v>0</v>
@@ -4378,13 +4388,13 @@
         <v>0</v>
       </c>
       <c r="H55" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I55" s="2">
         <v>0</v>
       </c>
       <c r="J55" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K55" s="2">
         <v>0</v>
@@ -4402,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="2">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="2"/>
     </row>
@@ -4417,13 +4427,13 @@
         <v>26</v>
       </c>
       <c r="D56" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="F56" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G56" s="2">
         <v>100</v>
@@ -4441,19 +4451,19 @@
         <v>100</v>
       </c>
       <c r="L56" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M56" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N56" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O56" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P56" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q56" s="2"/>
     </row>
@@ -4525,25 +4535,25 @@
         <v>0</v>
       </c>
       <c r="F58" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G58" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="2">
         <v>0</v>
@@ -4552,10 +4562,10 @@
         <v>0</v>
       </c>
       <c r="O58" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="2"/>
     </row>
@@ -4570,13 +4580,13 @@
         <v>18</v>
       </c>
       <c r="D59" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E59" s="2">
         <v>0</v>
       </c>
       <c r="F59" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G59" s="2">
         <v>0</v>
@@ -4588,10 +4598,10 @@
         <v>0</v>
       </c>
       <c r="J59" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K59" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L59" s="2">
         <v>0</v>
@@ -4603,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59" s="2">
         <v>0</v>
@@ -4624,37 +4634,37 @@
         <v>0</v>
       </c>
       <c r="E60" s="2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="F60" s="2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G60" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H60" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I60" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J60" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K60" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L60" s="2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="M60" s="2">
         <v>0</v>
       </c>
       <c r="N60" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O60" s="2">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="P60" s="2">
         <v>0</v>
@@ -4705,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="P61" s="2">
         <v>0</v>
@@ -4723,43 +4733,43 @@
         <v>26</v>
       </c>
       <c r="D62" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F62" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G62" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H62" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I62" s="2">
         <v>100</v>
       </c>
       <c r="J62" s="2">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K62" s="2">
         <v>100</v>
       </c>
       <c r="L62" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M62" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N62" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O62" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P62" s="2">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="Q62" s="2"/>
     </row>
@@ -4777,25 +4787,25 @@
         <v>0</v>
       </c>
       <c r="E63" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F63" s="2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G63" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H63" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I63" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J63" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K63" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L63" s="2">
         <v>0</v>
@@ -4810,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="2"/>
     </row>
@@ -4825,43 +4835,43 @@
         <v>18</v>
       </c>
       <c r="D64" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E64" s="2">
         <v>0</v>
       </c>
       <c r="F64" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G64" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H64" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I64" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J64" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K64" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L64" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M64" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N64" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O64" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P64" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="2"/>
     </row>
@@ -4876,25 +4886,25 @@
         <v>18</v>
       </c>
       <c r="D65" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E65" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F65" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G65" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H65" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I65" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J65" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K65" s="2">
         <v>0</v>
@@ -4909,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P65" s="2">
         <v>0</v>
@@ -4927,43 +4937,43 @@
         <v>23</v>
       </c>
       <c r="D66" s="2">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E66" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F66" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G66" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H66" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I66" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J66" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K66" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L66" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M66" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N66" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O66" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P66" s="2">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="2"/>
     </row>
@@ -4984,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G67" s="2">
         <v>0</v>
@@ -5038,19 +5048,19 @@
         <v>0</v>
       </c>
       <c r="G68" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H68" s="2">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I68" s="2">
         <v>0</v>
       </c>
       <c r="J68" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K68" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L68" s="2">
         <v>0</v>
@@ -5059,13 +5069,13 @@
         <v>0</v>
       </c>
       <c r="N68" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O68" s="2">
         <v>0</v>
       </c>
       <c r="P68" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="2"/>
     </row>
@@ -5083,40 +5093,40 @@
         <v>0</v>
       </c>
       <c r="E69" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F69" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G69" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H69" s="2">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I69" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J69" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K69" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L69" s="2">
         <v>0</v>
       </c>
       <c r="M69" s="2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N69" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O69" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P69" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q69" s="2"/>
     </row>
@@ -5134,25 +5144,25 @@
         <v>0</v>
       </c>
       <c r="E70" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F70" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G70" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H70" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I70" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J70" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K70" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L70" s="2">
         <v>0</v>
@@ -5182,10 +5192,10 @@
         <v>23</v>
       </c>
       <c r="D71" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2">
         <v>100</v>
@@ -5203,7 +5213,7 @@
         <v>100</v>
       </c>
       <c r="K71" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="L71" s="2">
         <v>100</v>
@@ -5212,13 +5222,13 @@
         <v>100</v>
       </c>
       <c r="N71" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O71" s="2">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="P71" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="Q71" s="2"/>
     </row>
@@ -5236,25 +5246,25 @@
         <v>0</v>
       </c>
       <c r="E72" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F72" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G72" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H72" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I72" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J72" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K72" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L72" s="2">
         <v>0</v>
@@ -5266,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="O72" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="P72" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="2"/>
     </row>
@@ -5284,16 +5294,16 @@
         <v>26</v>
       </c>
       <c r="D73" s="2">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G73" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H73" s="2">
         <v>100</v>
@@ -5305,22 +5315,22 @@
         <v>100</v>
       </c>
       <c r="K73" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L73" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M73" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N73" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O73" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P73" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q73" s="2"/>
     </row>
@@ -5338,28 +5348,28 @@
         <v>0</v>
       </c>
       <c r="E74" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F74" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G74" s="2">
         <v>0</v>
       </c>
       <c r="H74" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I74" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J74" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K74" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L74" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M74" s="2">
         <v>0</v>
@@ -5389,28 +5399,28 @@
         <v>0</v>
       </c>
       <c r="E75" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F75" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G75" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H75" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I75" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J75" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K75" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L75" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M75" s="2">
         <v>0</v>
@@ -5446,16 +5456,16 @@
         <v>0</v>
       </c>
       <c r="G76" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H76" s="2">
         <v>0</v>
       </c>
       <c r="I76" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J76" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K76" s="2">
         <v>0</v>
@@ -5473,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="P76" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="2"/>
     </row>
@@ -5494,19 +5504,19 @@
         <v>0</v>
       </c>
       <c r="F77" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G77" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H77" s="2">
         <v>0</v>
       </c>
       <c r="I77" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J77" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K77" s="2">
         <v>0</v>
@@ -5524,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="P77" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Q77" s="2"/>
     </row>
@@ -5539,43 +5549,43 @@
         <v>26</v>
       </c>
       <c r="D78" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E78" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F78" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G78" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H78" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I78" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J78" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K78" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L78" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M78" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N78" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O78" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P78" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q78" s="2"/>
     </row>
@@ -5641,25 +5651,25 @@
         <v>18</v>
       </c>
       <c r="D80" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E80" s="2">
         <v>0</v>
       </c>
       <c r="F80" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G80" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H80" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I80" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J80" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K80" s="2">
         <v>0</v>
@@ -5674,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="O80" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P80" s="2">
         <v>0</v>
@@ -5704,55 +5714,55 @@
       </c>
       <c r="D83" s="5">
         <f t="shared" ref="D83:P83" si="0">ROUND(AVERAGE(D2:D81),2)</f>
-        <v>2.29</v>
+        <v>16.46</v>
       </c>
       <c r="E83" s="5">
         <f t="shared" si="0"/>
-        <v>31.33</v>
+        <v>16.46</v>
       </c>
       <c r="F83" s="5">
         <f t="shared" si="0"/>
-        <v>42.15</v>
+        <v>16.46</v>
       </c>
       <c r="G83" s="5">
         <f t="shared" si="0"/>
-        <v>56.84</v>
+        <v>16.46</v>
       </c>
       <c r="H83" s="5">
         <f t="shared" si="0"/>
-        <v>62.46</v>
+        <v>16.46</v>
       </c>
       <c r="I83" s="5">
         <f t="shared" si="0"/>
-        <v>67.65</v>
+        <v>16.46</v>
       </c>
       <c r="J83" s="5">
         <f t="shared" si="0"/>
-        <v>74.43</v>
+        <v>16.46</v>
       </c>
       <c r="K83" s="5">
         <f t="shared" si="0"/>
-        <v>44.61</v>
+        <v>16.46</v>
       </c>
       <c r="L83" s="5">
         <f t="shared" si="0"/>
-        <v>21.77</v>
+        <v>16.46</v>
       </c>
       <c r="M83" s="5">
         <f t="shared" si="0"/>
-        <v>17.85</v>
+        <v>16.46</v>
       </c>
       <c r="N83" s="5">
         <f t="shared" si="0"/>
-        <v>14.43</v>
+        <v>16.46</v>
       </c>
       <c r="O83" s="5">
         <f t="shared" si="0"/>
-        <v>33.85</v>
+        <v>16.46</v>
       </c>
       <c r="P83" s="5">
         <f t="shared" si="0"/>
-        <v>25.77</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" ht="14" spans="3:16">
@@ -5761,35 +5771,35 @@
       </c>
       <c r="D85" s="5">
         <f t="shared" ref="D85:P85" si="1">ROUND(AVERAGE(D2:D29),2)</f>
-        <v>1.96</v>
+        <v>17.86</v>
       </c>
       <c r="E85" s="5">
         <f t="shared" si="1"/>
-        <v>38.04</v>
+        <v>17.86</v>
       </c>
       <c r="F85" s="5">
         <f t="shared" si="1"/>
-        <v>39.29</v>
+        <v>17.86</v>
       </c>
       <c r="G85" s="5">
         <f t="shared" si="1"/>
-        <v>61.07</v>
+        <v>17.86</v>
       </c>
       <c r="H85" s="5">
         <f t="shared" si="1"/>
-        <v>64.29</v>
+        <v>17.86</v>
       </c>
       <c r="I85" s="5">
         <f t="shared" si="1"/>
-        <v>75.79</v>
+        <v>17.86</v>
       </c>
       <c r="J85" s="5">
         <f t="shared" si="1"/>
-        <v>79.29</v>
+        <v>17.86</v>
       </c>
       <c r="K85" s="5">
         <f t="shared" si="1"/>
-        <v>45.82</v>
+        <v>17.86</v>
       </c>
       <c r="L85" s="5">
         <f t="shared" si="1"/>
@@ -5797,19 +5807,19 @@
       </c>
       <c r="M85" s="5">
         <f t="shared" si="1"/>
-        <v>24.64</v>
+        <v>17.86</v>
       </c>
       <c r="N85" s="5">
         <f t="shared" si="1"/>
-        <v>11.43</v>
+        <v>17.86</v>
       </c>
       <c r="O85" s="5">
         <f t="shared" si="1"/>
-        <v>34.5</v>
+        <v>17.86</v>
       </c>
       <c r="P85" s="5">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" ht="14" spans="3:16">
@@ -5818,39 +5828,39 @@
       </c>
       <c r="D86" s="5">
         <f t="shared" ref="D86:P86" si="2">ROUND(AVERAGE(D30:D54),2)</f>
-        <v>0.64</v>
+        <v>12</v>
       </c>
       <c r="E86" s="5">
         <f t="shared" si="2"/>
-        <v>23.4</v>
+        <v>12</v>
       </c>
       <c r="F86" s="5">
         <f t="shared" si="2"/>
-        <v>39.4</v>
+        <v>12</v>
       </c>
       <c r="G86" s="5">
         <f t="shared" si="2"/>
-        <v>49.2</v>
+        <v>12</v>
       </c>
       <c r="H86" s="5">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I86" s="5">
         <f t="shared" si="2"/>
-        <v>60.2</v>
+        <v>12</v>
       </c>
       <c r="J86" s="5">
         <f t="shared" si="2"/>
-        <v>66.4</v>
+        <v>12</v>
       </c>
       <c r="K86" s="5">
         <f t="shared" si="2"/>
-        <v>41.32</v>
+        <v>12</v>
       </c>
       <c r="L86" s="5">
         <f t="shared" si="2"/>
-        <v>23.4</v>
+        <v>12</v>
       </c>
       <c r="M86" s="5">
         <f t="shared" si="2"/>
@@ -5858,15 +5868,15 @@
       </c>
       <c r="N86" s="5">
         <f t="shared" si="2"/>
-        <v>15.6</v>
+        <v>12</v>
       </c>
       <c r="O86" s="5">
         <f t="shared" si="2"/>
-        <v>29.68</v>
+        <v>12</v>
       </c>
       <c r="P86" s="5">
         <f t="shared" si="2"/>
-        <v>20.04</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="1" ht="14" spans="3:16">
@@ -5875,55 +5885,55 @@
       </c>
       <c r="D87" s="5">
         <f t="shared" ref="D87:P87" si="3">ROUND(AVERAGE(D55:D80),2)</f>
-        <v>4.23</v>
+        <v>19.23</v>
       </c>
       <c r="E87" s="5">
         <f t="shared" si="3"/>
-        <v>31.73</v>
+        <v>19.23</v>
       </c>
       <c r="F87" s="5">
         <f t="shared" si="3"/>
-        <v>47.88</v>
+        <v>19.23</v>
       </c>
       <c r="G87" s="5">
         <f t="shared" si="3"/>
-        <v>59.62</v>
+        <v>19.23</v>
       </c>
       <c r="H87" s="5">
         <f t="shared" si="3"/>
-        <v>62.85</v>
+        <v>19.23</v>
       </c>
       <c r="I87" s="5">
         <f t="shared" si="3"/>
-        <v>66.04</v>
+        <v>19.23</v>
       </c>
       <c r="J87" s="5">
         <f t="shared" si="3"/>
-        <v>76.92</v>
+        <v>19.23</v>
       </c>
       <c r="K87" s="5">
         <f t="shared" si="3"/>
-        <v>46.46</v>
+        <v>19.23</v>
       </c>
       <c r="L87" s="5">
         <f t="shared" si="3"/>
-        <v>24.42</v>
+        <v>19.23</v>
       </c>
       <c r="M87" s="5">
         <f t="shared" si="3"/>
-        <v>16.15</v>
+        <v>19.23</v>
       </c>
       <c r="N87" s="5">
         <f t="shared" si="3"/>
-        <v>16.54</v>
+        <v>19.23</v>
       </c>
       <c r="O87" s="5">
         <f t="shared" si="3"/>
-        <v>37.15</v>
+        <v>19.23</v>
       </c>
       <c r="P87" s="5">
         <f t="shared" si="3"/>
-        <v>24.58</v>
+        <v>19.23</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" ht="14" spans="3:3">
@@ -5961,7 +5971,7 @@
       </c>
       <c r="J90" s="5">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K90" s="5">
         <f t="shared" si="4"/>
@@ -6002,27 +6012,27 @@
       </c>
       <c r="F91" s="5">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G91" s="5">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H91" s="5">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="5">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="5">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="5">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L91" s="5">
         <f t="shared" si="5"/>
@@ -6055,35 +6065,35 @@
       </c>
       <c r="E92" s="5">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F92" s="5">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G92" s="5">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H92" s="5">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I92" s="5">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J92" s="5">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K92" s="5">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L92" s="5">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M92" s="5">
         <f t="shared" si="6"/>
@@ -6095,11 +6105,11 @@
       </c>
       <c r="O92" s="5">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="P92" s="5">
         <f t="shared" si="6"/>
-        <v>56.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
